--- a/DesktopApp/data/lenlichdangbaizalooa.xlsx
+++ b/DesktopApp/data/lenlichdangbaizalooa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mci\automate-socials\zalooa\Selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mci\automate-socials\DesktopApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107AB247-0C75-4ADB-8990-6E8F293D49B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C192221-9A86-455B-B273-23B82974A3D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7A01073F-C896-4F66-B742-224B47865BB2}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
